--- a/data/trans_orig/P47A-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P47A-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>26138</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16820</v>
+        <v>17552</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>37373</v>
+        <v>38470</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04495510565808139</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0289292813142185</v>
+        <v>0.03018787263038585</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06427819990842816</v>
+        <v>0.06616428718072222</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>30</v>
@@ -765,19 +765,19 @@
         <v>32310</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22635</v>
+        <v>21650</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>47519</v>
+        <v>44953</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03506524260740641</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02456497922204223</v>
+        <v>0.02349645505675363</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05157120427295253</v>
+        <v>0.04878604770146217</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>54</v>
@@ -786,19 +786,19 @@
         <v>58448</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>43316</v>
+        <v>44558</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>76385</v>
+        <v>76240</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03889145447457237</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02882209703156863</v>
+        <v>0.02964899139277083</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05082617072958697</v>
+        <v>0.05072966615993209</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>357235</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>334923</v>
+        <v>334329</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>381300</v>
+        <v>380903</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.614407213293673</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5760337356694363</v>
+        <v>0.5750118420391835</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6557976899903113</v>
+        <v>0.6551135186848575</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>423</v>
@@ -836,19 +836,19 @@
         <v>442827</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>410392</v>
+        <v>412128</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>471847</v>
+        <v>473296</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4805862185940289</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4453857547169108</v>
+        <v>0.4472695602389051</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5120815855801812</v>
+        <v>0.5136536360597318</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>769</v>
@@ -857,19 +857,19 @@
         <v>800061</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>761062</v>
+        <v>760930</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>841939</v>
+        <v>841356</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5323591779739655</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5064092938077573</v>
+        <v>0.5063216003303356</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5602247829793621</v>
+        <v>0.5598366850156354</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>151702</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>131568</v>
+        <v>130857</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>173413</v>
+        <v>172014</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2609111834787677</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2262829500358521</v>
+        <v>0.2250601556657844</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.298252810549692</v>
+        <v>0.2958460339789505</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>278</v>
@@ -907,19 +907,19 @@
         <v>289157</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>261622</v>
+        <v>260608</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>316562</v>
+        <v>318929</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3138127693650263</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2839304064502638</v>
+        <v>0.2828297666633093</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3435552183073772</v>
+        <v>0.3461244548425259</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>432</v>
@@ -928,19 +928,19 @@
         <v>440858</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>406718</v>
+        <v>403775</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>476464</v>
+        <v>474445</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2933460880093035</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2706297636667936</v>
+        <v>0.2686714161326086</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3170385058611699</v>
+        <v>0.3156949481260578</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>46355</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>34255</v>
+        <v>33648</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>59591</v>
+        <v>60323</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07972649756947799</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05891522867259568</v>
+        <v>0.05787061974506481</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1024899693071565</v>
+        <v>0.103749756441909</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>153</v>
@@ -978,19 +978,19 @@
         <v>157137</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>137903</v>
+        <v>136286</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>182649</v>
+        <v>181647</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1705357694335383</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1496620193999293</v>
+        <v>0.1479072341300678</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1982231376382208</v>
+        <v>0.1971356146839252</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>200</v>
@@ -999,19 +999,19 @@
         <v>203492</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>176648</v>
+        <v>178940</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>228898</v>
+        <v>233766</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1354032795421587</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1175410025703539</v>
+        <v>0.1190665527699613</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1523085579921927</v>
+        <v>0.155547827484943</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>43504</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>31725</v>
+        <v>32117</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>59323</v>
+        <v>58766</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04042646122685203</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02948031428475046</v>
+        <v>0.02984523694297112</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05512588822563776</v>
+        <v>0.05460875030637441</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>23</v>
@@ -1124,19 +1124,19 @@
         <v>23252</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>14193</v>
+        <v>15406</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>34015</v>
+        <v>34819</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02203164712862413</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01344771534875566</v>
+        <v>0.01459692505091116</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0322299236084528</v>
+        <v>0.03299148967468331</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>63</v>
@@ -1145,19 +1145,19 @@
         <v>66756</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>51189</v>
+        <v>52222</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>83695</v>
+        <v>86275</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03131852442735623</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02401533173791184</v>
+        <v>0.02449994522816015</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03926539829755653</v>
+        <v>0.04047558370493195</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>674351</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>642927</v>
+        <v>643217</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>705407</v>
+        <v>706610</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6266444010548217</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5974437351246352</v>
+        <v>0.5977134626693701</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6555033936670999</v>
+        <v>0.6566212471797004</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>551</v>
@@ -1195,19 +1195,19 @@
         <v>565932</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>532308</v>
+        <v>533299</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>598374</v>
+        <v>594110</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5362281339090321</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5043688825698762</v>
+        <v>0.505307085614879</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5669672733650409</v>
+        <v>0.5629263528167124</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1209</v>
@@ -1216,19 +1216,19 @@
         <v>1240283</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1193845</v>
+        <v>1188794</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1286404</v>
+        <v>1284891</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5818760417546038</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5600898130961628</v>
+        <v>0.5577198957989988</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6035132280510621</v>
+        <v>0.6028035574436154</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>282997</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>253448</v>
+        <v>254249</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>311206</v>
+        <v>310395</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2629766786190593</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2355183477000063</v>
+        <v>0.2362625848816455</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2891899155321898</v>
+        <v>0.2884364413669355</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>323</v>
@@ -1266,19 +1266,19 @@
         <v>333059</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>300117</v>
+        <v>304797</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>361242</v>
+        <v>365048</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3155772498532464</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2843649848209876</v>
+        <v>0.2887989453548883</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3422810270924842</v>
+        <v>0.3458877720185937</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>603</v>
@@ -1287,19 +1287,19 @@
         <v>616056</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>578970</v>
+        <v>575252</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>664222</v>
+        <v>660911</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2890211211374811</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.271622609530893</v>
+        <v>0.2698781999223154</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3116182080037564</v>
+        <v>0.3100647839624373</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>75278</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>60050</v>
+        <v>59244</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>92894</v>
+        <v>91000</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06995245909926702</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05580155797280973</v>
+        <v>0.05505304171810697</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08632228908406489</v>
+        <v>0.08456269214085455</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>129</v>
@@ -1337,19 +1337,19 @@
         <v>133152</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>112229</v>
+        <v>114072</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>155571</v>
+        <v>156796</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1261629691090973</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1063385244144551</v>
+        <v>0.1080843289897863</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1474052635089356</v>
+        <v>0.1485663178270842</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>204</v>
@@ -1358,19 +1358,19 @@
         <v>208430</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>180267</v>
+        <v>184437</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>235525</v>
+        <v>238616</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09778431268055876</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08457177376786026</v>
+        <v>0.08652828039081673</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1104961842429731</v>
+        <v>0.1119461214245312</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>55046</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>41974</v>
+        <v>40553</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>70689</v>
+        <v>70594</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.04911484828910023</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03745173474197271</v>
+        <v>0.03618348891645606</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06307247497634905</v>
+        <v>0.06298728752915467</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>38</v>
@@ -1483,19 +1483,19 @@
         <v>39761</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>28458</v>
+        <v>28059</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>53152</v>
+        <v>53186</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04012798783417959</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02872054725907642</v>
+        <v>0.0283184975339823</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05364238197096206</v>
+        <v>0.05367660649005527</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>90</v>
@@ -1504,19 +1504,19 @@
         <v>94807</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>74612</v>
+        <v>76585</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>114619</v>
+        <v>114895</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04489785646954611</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03533426340893091</v>
+        <v>0.03626857096705377</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05428010371275687</v>
+        <v>0.05441091407048144</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>678248</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>641662</v>
+        <v>646999</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>708889</v>
+        <v>713100</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.60516720251473</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5725238870907388</v>
+        <v>0.5772854145958846</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6325072804705352</v>
+        <v>0.6362643752670434</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>562</v>
@@ -1554,19 +1554,19 @@
         <v>570648</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>539438</v>
+        <v>539047</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>598110</v>
+        <v>602191</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.5759155005272769</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.5444174427471656</v>
+        <v>0.5440227281272559</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.6036317363793288</v>
+        <v>0.607750089418013</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1229</v>
@@ -1575,19 +1575,19 @@
         <v>1248895</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1203065</v>
+        <v>1205933</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>1295102</v>
+        <v>1295506</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.591441142272904</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.569737397635364</v>
+        <v>0.5710956168504286</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.613323277275285</v>
+        <v>0.6135145223261467</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>306814</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>276056</v>
+        <v>276007</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>337338</v>
+        <v>336172</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2737552679442142</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.246311247051432</v>
+        <v>0.2462677052087122</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.300990259128322</v>
+        <v>0.2999497072539224</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>266</v>
@@ -1625,19 +1625,19 @@
         <v>268751</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>240980</v>
+        <v>241937</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>296839</v>
+        <v>298539</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2712315787534276</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.243204397616792</v>
+        <v>0.2441708535699478</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2995793938577272</v>
+        <v>0.3012944504189627</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>569</v>
@@ -1646,19 +1646,19 @@
         <v>575565</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>535690</v>
+        <v>533939</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>618749</v>
+        <v>616227</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2725710527529327</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.253687345879434</v>
+        <v>0.2528580968758444</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2930218818402784</v>
+        <v>0.291827307630232</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>80653</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>64919</v>
+        <v>65043</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>100265</v>
+        <v>99278</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07196268125195551</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05792421110247069</v>
+        <v>0.05803446676835108</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08946179491786971</v>
+        <v>0.08858078742737258</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>113</v>
@@ -1696,19 +1696,19 @@
         <v>111694</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>93328</v>
+        <v>92520</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>133741</v>
+        <v>131864</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1127249328851159</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09418996198361589</v>
+        <v>0.09337451447707959</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1349756468609653</v>
+        <v>0.1330809397478121</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>193</v>
@@ -1717,19 +1717,19 @@
         <v>192347</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>167876</v>
+        <v>166980</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>221229</v>
+        <v>221052</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09108994850461721</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07950108443041951</v>
+        <v>0.07907672489197255</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1047676457488472</v>
+        <v>0.1046840800089641</v>
       </c>
     </row>
     <row r="18">
@@ -1824,16 +1824,16 @@
         <v>8277</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>24804</v>
+        <v>23148</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03303314348838768</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0185079205467471</v>
+        <v>0.01850930035360025</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05546584182143246</v>
+        <v>0.05176144634901309</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>18</v>
@@ -1842,19 +1842,19 @@
         <v>18348</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10886</v>
+        <v>11175</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>27842</v>
+        <v>28423</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05405631594630413</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03207252158481722</v>
+        <v>0.03292365733010283</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08202562094020879</v>
+        <v>0.08373847261513245</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>33</v>
@@ -1863,19 +1863,19 @@
         <v>33121</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>21540</v>
+        <v>23871</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>44614</v>
+        <v>46455</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04210457305240769</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02738263124445245</v>
+        <v>0.03034610413520271</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05671516536019444</v>
+        <v>0.05905629368063327</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>302458</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>281494</v>
+        <v>281982</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>320893</v>
+        <v>320489</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6763377030456926</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6294591037470616</v>
+        <v>0.6305505117901729</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7175603907872519</v>
+        <v>0.716656658517656</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>207</v>
@@ -1913,19 +1913,19 @@
         <v>208965</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>192434</v>
+        <v>190735</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>229837</v>
+        <v>226744</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6156411859870532</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5669386507529955</v>
+        <v>0.5619310270522417</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6771322864121868</v>
+        <v>0.6680203129528195</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>499</v>
@@ -1934,19 +1934,19 @@
         <v>511423</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>484573</v>
+        <v>483195</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>537541</v>
+        <v>535046</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.650147356161512</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6160144420055466</v>
+        <v>0.6142632256462374</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.683349856571167</v>
+        <v>0.6801779403124615</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>108044</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>91393</v>
+        <v>91577</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>128251</v>
+        <v>126985</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2416020400471429</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2043671799829598</v>
+        <v>0.2047781877188643</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2867871648582724</v>
+        <v>0.2839546532911996</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>94</v>
@@ -1984,19 +1984,19 @@
         <v>93491</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>77521</v>
+        <v>76147</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>108589</v>
+        <v>109617</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2754382755513001</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2283890778206742</v>
+        <v>0.2243404475418695</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3199191732540542</v>
+        <v>0.3229483877169526</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>202</v>
@@ -2005,19 +2005,19 @@
         <v>201535</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>179280</v>
+        <v>180934</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>227570</v>
+        <v>229134</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2562022640476825</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2279103565963677</v>
+        <v>0.230012647851546</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2892982450592027</v>
+        <v>0.2912876967638563</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>21925</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14690</v>
+        <v>14185</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>32548</v>
+        <v>33370</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0490271134187767</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03284907837061491</v>
+        <v>0.03172004341285373</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07278241567823091</v>
+        <v>0.07462084371420195</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>18</v>
@@ -2055,19 +2055,19 @@
         <v>18622</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>11500</v>
+        <v>11874</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>30122</v>
+        <v>28404</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05486422251534256</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03388143275154779</v>
+        <v>0.03498306882362982</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08874368325123287</v>
+        <v>0.08368297862730953</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>39</v>
@@ -2076,19 +2076,19 @@
         <v>40547</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>29205</v>
+        <v>29266</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>56053</v>
+        <v>55277</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05154580673839786</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03712661380041739</v>
+        <v>0.03720466044187326</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07125772129092943</v>
+        <v>0.07027074350906873</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>139461</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>117520</v>
+        <v>116252</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>164461</v>
+        <v>167109</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0432366760347865</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03643439309059798</v>
+        <v>0.03604131860264293</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0509874989588468</v>
+        <v>0.05180824620061487</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>109</v>
@@ -2201,19 +2201,19 @@
         <v>113671</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>92338</v>
+        <v>93132</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>135524</v>
+        <v>133652</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03437186314948068</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02792101138837051</v>
+        <v>0.02816128750670313</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04097975364625277</v>
+        <v>0.04041353466521744</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>240</v>
@@ -2222,19 +2222,19 @@
         <v>253132</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>223176</v>
+        <v>223576</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>284855</v>
+        <v>287947</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03874891414664833</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03416328507511793</v>
+        <v>0.03422455664357139</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04360500915552078</v>
+        <v>0.04407828444498815</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>2012291</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1958314</v>
+        <v>1956481</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2065435</v>
+        <v>2068514</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6238656104184404</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.607131129737324</v>
+        <v>0.6065628484902869</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6403417966538442</v>
+        <v>0.6412961595185338</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1743</v>
@@ -2272,19 +2272,19 @@
         <v>1788372</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1732323</v>
+        <v>1735960</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1851207</v>
+        <v>1854051</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5407665857424155</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5238185163458895</v>
+        <v>0.5249182405282784</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5597665642318823</v>
+        <v>0.5606266065389069</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3706</v>
@@ -2293,19 +2293,19 @@
         <v>3800663</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3722194</v>
+        <v>3720164</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3880659</v>
+        <v>3881273</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5817971944566463</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5697854085805457</v>
+        <v>0.5694745428617555</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5940427964196254</v>
+        <v>0.5941367432355843</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>849557</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>800623</v>
+        <v>801595</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>903950</v>
+        <v>899295</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2633860864384079</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2482153259400716</v>
+        <v>0.2485166027575403</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2802495234508369</v>
+        <v>0.2788063213830916</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>961</v>
@@ -2343,19 +2343,19 @@
         <v>984457</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>924856</v>
+        <v>931181</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1034578</v>
+        <v>1037441</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2976793790590455</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2796571513642563</v>
+        <v>0.2815697179157263</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3128350831279992</v>
+        <v>0.3137007075406902</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1806</v>
@@ -2364,19 +2364,19 @@
         <v>1834014</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1757749</v>
+        <v>1762626</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1908062</v>
+        <v>1903778</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2807468738157444</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2690724229601927</v>
+        <v>0.269818976550269</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2920819950075539</v>
+        <v>0.2914261793500336</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>224211</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>197901</v>
+        <v>194807</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>253151</v>
+        <v>253039</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.06951162710836521</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.06135486150575295</v>
+        <v>0.06039562341927043</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.07848392873871538</v>
+        <v>0.07844912571779923</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>413</v>
@@ -2414,19 +2414,19 @@
         <v>420605</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>381968</v>
+        <v>381491</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>457159</v>
+        <v>457947</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1271821720490584</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1154991785804034</v>
+        <v>0.1153550418478914</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1382355351316525</v>
+        <v>0.1384735902596047</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>636</v>
@@ -2435,19 +2435,19 @@
         <v>644816</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>597501</v>
+        <v>598797</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>694422</v>
+        <v>695058</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.098707017580961</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.09146408176078662</v>
+        <v>0.09166257248337818</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1063006701933086</v>
+        <v>0.1063980230319949</v>
       </c>
     </row>
     <row r="28">
@@ -2779,19 +2779,19 @@
         <v>62550</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>49581</v>
+        <v>48053</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>80238</v>
+        <v>79684</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06034274563102474</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04783202588428146</v>
+        <v>0.04635794520640088</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07740664879537187</v>
+        <v>0.07687256716374259</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>40</v>
@@ -2800,19 +2800,19 @@
         <v>44323</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>31759</v>
+        <v>32348</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>60418</v>
+        <v>59935</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03999318163252144</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02865630683792747</v>
+        <v>0.02918767113434865</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05451511499521602</v>
+        <v>0.05407953807586682</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>100</v>
@@ -2821,19 +2821,19 @@
         <v>106873</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>87544</v>
+        <v>85989</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>128486</v>
+        <v>128345</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04982783872648953</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04081587448989301</v>
+        <v>0.04009117355932006</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05990442369332031</v>
+        <v>0.05983869351540731</v>
       </c>
     </row>
     <row r="5">
@@ -2850,19 +2850,19 @@
         <v>601489</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>569612</v>
+        <v>567517</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>636277</v>
+        <v>633965</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5802661179163504</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5495136123578375</v>
+        <v>0.5474928822576812</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6138266315071691</v>
+        <v>0.6115958819591476</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>478</v>
@@ -2871,19 +2871,19 @@
         <v>521855</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>485278</v>
+        <v>486268</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>557326</v>
+        <v>555214</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4708718099887241</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4378690637415023</v>
+        <v>0.4387616144504288</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5028778624138536</v>
+        <v>0.5009718404494731</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1046</v>
@@ -2892,19 +2892,19 @@
         <v>1123344</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1069731</v>
+        <v>1072817</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1170627</v>
+        <v>1169248</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5237405351653072</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4987445127569465</v>
+        <v>0.5001831762347261</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5457857403924553</v>
+        <v>0.5451426401725837</v>
       </c>
     </row>
     <row r="6">
@@ -2921,19 +2921,19 @@
         <v>294554</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>265062</v>
+        <v>263777</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>323093</v>
+        <v>323864</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2841604605529271</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2557093888012668</v>
+        <v>0.2544695185705606</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3116925091404386</v>
+        <v>0.3124363287777248</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>374</v>
@@ -2942,19 +2942,19 @@
         <v>404051</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>370367</v>
+        <v>372953</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>438153</v>
+        <v>437857</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3645773609101403</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3341839625573992</v>
+        <v>0.3365170609342413</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3953473335095</v>
+        <v>0.3950805298453042</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>646</v>
@@ -2963,19 +2963,19 @@
         <v>698605</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>655862</v>
+        <v>655079</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>748478</v>
+        <v>745049</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3257130078639934</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3057850337227399</v>
+        <v>0.305419868829797</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.348965599745832</v>
+        <v>0.3473667728095863</v>
       </c>
     </row>
     <row r="7">
@@ -2992,19 +2992,19 @@
         <v>77982</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>61630</v>
+        <v>60388</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>96956</v>
+        <v>96559</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07523067589969774</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05945559003926309</v>
+        <v>0.05825735822396158</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09353496359620586</v>
+        <v>0.09315203638407489</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>128</v>
@@ -3013,19 +3013,19 @@
         <v>138044</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>117601</v>
+        <v>116401</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>161221</v>
+        <v>163175</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1245576474686142</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1061115403370792</v>
+        <v>0.1050292547644657</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1454708201172621</v>
+        <v>0.1472331887488267</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>201</v>
@@ -3034,19 +3034,19 @@
         <v>216026</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>188142</v>
+        <v>189978</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>247721</v>
+        <v>247391</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1007186182442099</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08771812957880848</v>
+        <v>0.0885740430455078</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1154960576411075</v>
+        <v>0.1153419154342734</v>
       </c>
     </row>
     <row r="8">
@@ -3138,19 +3138,19 @@
         <v>50302</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>37290</v>
+        <v>37173</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>67582</v>
+        <v>65778</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0517161690968235</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03833780375043293</v>
+        <v>0.03821734187051044</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06948172913426306</v>
+        <v>0.06762716917400549</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>33</v>
@@ -3159,19 +3159,19 @@
         <v>34819</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>24641</v>
+        <v>22849</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>47651</v>
+        <v>47293</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03213663654983141</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02274252945896862</v>
+        <v>0.02108865473385128</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04398011859856593</v>
+        <v>0.04365027635080972</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>80</v>
@@ -3180,19 +3180,19 @@
         <v>85121</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>65983</v>
+        <v>67963</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>103617</v>
+        <v>106391</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04139886214754464</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03209096896267514</v>
+        <v>0.03305377933955782</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0503943801007358</v>
+        <v>0.05174343116783526</v>
       </c>
     </row>
     <row r="10">
@@ -3209,19 +3209,19 @@
         <v>593935</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>564323</v>
+        <v>561198</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>624279</v>
+        <v>625199</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6106285722368646</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5801843427692744</v>
+        <v>0.5769715141409842</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6418263884109624</v>
+        <v>0.6427716342003815</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>535</v>
@@ -3230,19 +3230,19 @@
         <v>571811</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>537229</v>
+        <v>538068</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>603837</v>
+        <v>604801</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5277638807946003</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4958458695476317</v>
+        <v>0.4966199345884676</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5573224767693113</v>
+        <v>0.5582122196689296</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1098</v>
@@ -3251,19 +3251,19 @@
         <v>1165746</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1122217</v>
+        <v>1120321</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1211177</v>
+        <v>1211826</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5669635636461227</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5457933130761179</v>
+        <v>0.5448709852958612</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5890590550834983</v>
+        <v>0.5893746133653233</v>
       </c>
     </row>
     <row r="11">
@@ -3280,19 +3280,19 @@
         <v>272676</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>246738</v>
+        <v>244436</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>301955</v>
+        <v>304026</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2803405653100852</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2536733995367156</v>
+        <v>0.2513062933332832</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3104420151295336</v>
+        <v>0.3125711242691686</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>331</v>
@@ -3301,19 +3301,19 @@
         <v>357834</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>328157</v>
+        <v>326093</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>389536</v>
+        <v>393500</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3302694302661187</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3028784179902528</v>
+        <v>0.3009733696540832</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3595293735272497</v>
+        <v>0.3631886488265219</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>592</v>
@@ -3322,19 +3322,19 @@
         <v>630510</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>587858</v>
+        <v>587711</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>672707</v>
+        <v>673554</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3066502549895575</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2859062644458203</v>
+        <v>0.2858346670993346</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3271727965895197</v>
+        <v>0.3275846612055339</v>
       </c>
     </row>
     <row r="12">
@@ -3351,19 +3351,19 @@
         <v>55748</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>40915</v>
+        <v>41078</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>73623</v>
+        <v>74072</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05731469335622672</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04206517227636648</v>
+        <v>0.04223286884132859</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07569202435259298</v>
+        <v>0.07615389639175016</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>111</v>
@@ -3372,19 +3372,19 @@
         <v>118996</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>96986</v>
+        <v>100303</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>139599</v>
+        <v>144029</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1098300523894495</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08951499528947886</v>
+        <v>0.09257652408396716</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1288459942521805</v>
+        <v>0.1329342542975156</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>161</v>
@@ -3393,19 +3393,19 @@
         <v>174744</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>147833</v>
+        <v>150138</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>201640</v>
+        <v>202854</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08498731921677519</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0718989678539308</v>
+        <v>0.07301979495643417</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09806806958122742</v>
+        <v>0.09865860037625448</v>
       </c>
     </row>
     <row r="13">
@@ -3497,19 +3497,19 @@
         <v>23395</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>15192</v>
+        <v>15573</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>33559</v>
+        <v>34395</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02690734424007317</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0174724991755685</v>
+        <v>0.01791064951111423</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03859782869218864</v>
+        <v>0.0395591555426641</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>26</v>
@@ -3518,19 +3518,19 @@
         <v>28450</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>18675</v>
+        <v>18607</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>41864</v>
+        <v>40797</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03276087619110118</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02150527741986326</v>
+        <v>0.02142626713310315</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04820763997829738</v>
+        <v>0.04697891506570465</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>50</v>
@@ -3539,19 +3539,19 @@
         <v>51844</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>38406</v>
+        <v>38319</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>68168</v>
+        <v>69099</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02983233940658508</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02209959441145646</v>
+        <v>0.02204949514269265</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03922522893830784</v>
+        <v>0.03976102725484573</v>
       </c>
     </row>
     <row r="15">
@@ -3568,19 +3568,19 @@
         <v>572062</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>539951</v>
+        <v>543388</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>600055</v>
+        <v>600443</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.6579552489394853</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6210220665921554</v>
+        <v>0.6249749606277755</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6901506189827079</v>
+        <v>0.690596890878502</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>461</v>
@@ -3589,19 +3589,19 @@
         <v>491888</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>462499</v>
+        <v>464417</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>524267</v>
+        <v>523703</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.5664277207655616</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.5325849421353444</v>
+        <v>0.5347936946263506</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.6037137729411943</v>
+        <v>0.6030641470911691</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>996</v>
@@ -3610,19 +3610,19 @@
         <v>1063951</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1020382</v>
+        <v>1023561</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>1102794</v>
+        <v>1106629</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.6122191737371465</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.5871487833776202</v>
+        <v>0.5889782039460065</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.634570275072872</v>
+        <v>0.6367774689198942</v>
       </c>
     </row>
     <row r="16">
@@ -3639,19 +3639,19 @@
         <v>225455</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>201780</v>
+        <v>199628</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>252977</v>
+        <v>252963</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2593056124190754</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2320769313052614</v>
+        <v>0.2296013776024532</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2909602662162818</v>
+        <v>0.2909446455390666</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>266</v>
@@ -3660,19 +3660,19 @@
         <v>280714</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>253566</v>
+        <v>253974</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>310751</v>
+        <v>307402</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3232522355868525</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2919905309625589</v>
+        <v>0.2924609730998249</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3578420115421769</v>
+        <v>0.3539849218153703</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>481</v>
@@ -3681,19 +3681,19 @@
         <v>506168</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>468479</v>
+        <v>465413</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>546658</v>
+        <v>543476</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2912595788867322</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2695724357374898</v>
+        <v>0.2678081883527494</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3145582515007046</v>
+        <v>0.3127274427290156</v>
       </c>
     </row>
     <row r="17">
@@ -3710,19 +3710,19 @@
         <v>48543</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>35683</v>
+        <v>33150</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>67208</v>
+        <v>64364</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05583179440136617</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04104055189314393</v>
+        <v>0.0381271466867572</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07729955037991064</v>
+        <v>0.07402787261552868</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>62</v>
@@ -3731,19 +3731,19 @@
         <v>67353</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>51757</v>
+        <v>52057</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>84467</v>
+        <v>84215</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07755916745648467</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05960015256296459</v>
+        <v>0.05994587383161069</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09726749892538858</v>
+        <v>0.09697725766352842</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>103</v>
@@ -3752,19 +3752,19 @@
         <v>115896</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>95228</v>
+        <v>96319</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>139289</v>
+        <v>137864</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06668890796953617</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05479601046953868</v>
+        <v>0.05542394281082174</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08014994839664165</v>
+        <v>0.07932977934876899</v>
       </c>
     </row>
     <row r="18">
@@ -3856,19 +3856,19 @@
         <v>28043</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>18989</v>
+        <v>18325</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>40060</v>
+        <v>40816</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05607356978328621</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03797002410359469</v>
+        <v>0.03664113503817434</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08010079741469561</v>
+        <v>0.08161217005655061</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>24</v>
@@ -3877,19 +3877,19 @@
         <v>26862</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>17859</v>
+        <v>17689</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>39620</v>
+        <v>37811</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0600594122859182</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03992982996247877</v>
+        <v>0.03955086592716842</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08858501936093219</v>
+        <v>0.08454101829104405</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>50</v>
@@ -3898,19 +3898,19 @@
         <v>54905</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>41551</v>
+        <v>41800</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>71632</v>
+        <v>71126</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05795529013907412</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04385904906998617</v>
+        <v>0.04412148150136805</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07561099303232788</v>
+        <v>0.07507746498649238</v>
       </c>
     </row>
     <row r="20">
@@ -3927,19 +3927,19 @@
         <v>327669</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>303586</v>
+        <v>304146</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>350847</v>
+        <v>348644</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6551834683931844</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6070277483560758</v>
+        <v>0.6081474983282029</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7015284100652969</v>
+        <v>0.6971240900127996</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>232</v>
@@ -3948,19 +3948,19 @@
         <v>255280</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>235182</v>
+        <v>231710</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>276640</v>
+        <v>276727</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5707690972320537</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5258338426760006</v>
+        <v>0.5180706929991569</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6185269554928231</v>
+        <v>0.6187227655672408</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>534</v>
@@ -3969,19 +3969,19 @@
         <v>582949</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>548305</v>
+        <v>550017</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>612928</v>
+        <v>613808</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6153313567179124</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5787631283714302</v>
+        <v>0.5805701663648616</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6469753965438683</v>
+        <v>0.6479049987382406</v>
       </c>
     </row>
     <row r="21">
@@ -3998,19 +3998,19 @@
         <v>118832</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>97884</v>
+        <v>100326</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>139986</v>
+        <v>140745</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2376077772050019</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1957224094356679</v>
+        <v>0.2006051407028416</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2799052944523183</v>
+        <v>0.2814231336566185</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>117</v>
@@ -4019,19 +4019,19 @@
         <v>127341</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>108871</v>
+        <v>108825</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>146235</v>
+        <v>147396</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2847162452231343</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2434208490010933</v>
+        <v>0.2433167740859346</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3269602449997935</v>
+        <v>0.329557305855557</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>226</v>
@@ -4040,19 +4040,19 @@
         <v>246173</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>220607</v>
+        <v>217702</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>278382</v>
+        <v>275192</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.259847733535732</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2328618783738327</v>
+        <v>0.229795354924208</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.293846171465303</v>
+        <v>0.2904782763649028</v>
       </c>
     </row>
     <row r="22">
@@ -4069,19 +4069,19 @@
         <v>25574</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>15982</v>
+        <v>15949</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>39371</v>
+        <v>38950</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05113518461852747</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03195654921538492</v>
+        <v>0.03189111735675586</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07872297972537579</v>
+        <v>0.07788167339545944</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>34</v>
@@ -4090,19 +4090,19 @@
         <v>37773</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>26252</v>
+        <v>27188</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>51445</v>
+        <v>52320</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08445524525889386</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05869492359374298</v>
+        <v>0.06078890147949961</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1150242820961852</v>
+        <v>0.1169809321563583</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>55</v>
@@ -4111,19 +4111,19 @@
         <v>63347</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>47670</v>
+        <v>48006</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>82995</v>
+        <v>82659</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06686561960728148</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0503181961370076</v>
+        <v>0.05067317575006021</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08760535126866763</v>
+        <v>0.08725038486011207</v>
       </c>
     </row>
     <row r="23">
@@ -4215,19 +4215,19 @@
         <v>164290</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>142609</v>
+        <v>142027</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>191815</v>
+        <v>188850</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04862370183069351</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04220694665998817</v>
+        <v>0.04203471813283887</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05676997349528951</v>
+        <v>0.0558925087968527</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>123</v>
@@ -4236,19 +4236,19 @@
         <v>134454</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>111670</v>
+        <v>113883</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>159854</v>
+        <v>159731</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03833438202022614</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03183849783137244</v>
+        <v>0.03246935776930548</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04557634335744384</v>
+        <v>0.04554119531437708</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>280</v>
@@ -4257,19 +4257,19 @@
         <v>298744</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>266294</v>
+        <v>265592</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>334093</v>
+        <v>338433</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04338297755071788</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0386706607337852</v>
+        <v>0.03856872466574453</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04851623468406254</v>
+        <v>0.04914652264518283</v>
       </c>
     </row>
     <row r="25">
@@ -4286,19 +4286,19 @@
         <v>2095155</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2036403</v>
+        <v>2037049</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2161673</v>
+        <v>2153980</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.620086984269359</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.602698472972041</v>
+        <v>0.6028897837373557</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6397737245141808</v>
+        <v>0.6374967938009508</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1706</v>
@@ -4307,19 +4307,19 @@
         <v>1840834</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1779200</v>
+        <v>1777669</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1902539</v>
+        <v>1903817</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5248438255567441</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5072714402646947</v>
+        <v>0.5068349640413951</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5424367722759873</v>
+        <v>0.5428010597352572</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3674</v>
@@ -4328,19 +4328,19 @@
         <v>3935989</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3852135</v>
+        <v>3847080</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4024654</v>
+        <v>4021990</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5715761843757652</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.559399092036944</v>
+        <v>0.5586649590235223</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5844519263982949</v>
+        <v>0.5840650857078611</v>
       </c>
     </row>
     <row r="26">
@@ -4357,19 +4357,19 @@
         <v>911516</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>858765</v>
+        <v>860195</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>965204</v>
+        <v>967958</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2697744845094592</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2541619073027314</v>
+        <v>0.2545853625887271</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2856639432232579</v>
+        <v>0.2864791688804507</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1088</v>
@@ -4378,19 +4378,19 @@
         <v>1169940</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1114234</v>
+        <v>1118154</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1227234</v>
+        <v>1235080</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3335638583472998</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.317681511022931</v>
+        <v>0.3187992721845403</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3498991921537623</v>
+        <v>0.3521362465254571</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1945</v>
@@ -4399,19 +4399,19 @@
         <v>2081456</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2006181</v>
+        <v>1999839</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2162727</v>
+        <v>2159144</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3022647293880688</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2913334068869693</v>
+        <v>0.2904125202132154</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3140667440152402</v>
+        <v>0.3135463780114789</v>
       </c>
     </row>
     <row r="27">
@@ -4428,19 +4428,19 @@
         <v>207847</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>178946</v>
+        <v>180575</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>243070</v>
+        <v>238620</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.0615148293904882</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.05296132578703583</v>
+        <v>0.05344328766437043</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.07193952957681682</v>
+        <v>0.07062266542719657</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>335</v>
@@ -4449,19 +4449,19 @@
         <v>362166</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>326447</v>
+        <v>321486</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>404816</v>
+        <v>397107</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1032579340757299</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.09307409449586403</v>
+        <v>0.09165967057143695</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1154179142959378</v>
+        <v>0.1132198678565264</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>520</v>
@@ -4470,19 +4470,19 @@
         <v>570013</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>524228</v>
+        <v>527652</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>620690</v>
+        <v>622796</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.08277610868544812</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.07612735281443242</v>
+        <v>0.07662450010477083</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.09013528594860544</v>
+        <v>0.09044109862922528</v>
       </c>
     </row>
     <row r="28">
@@ -4814,19 +4814,19 @@
         <v>66114</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>50973</v>
+        <v>51184</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>83228</v>
+        <v>82653</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05916674261999938</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04561667442906832</v>
+        <v>0.04580594311876527</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07448254963879124</v>
+        <v>0.07396778379029932</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>46</v>
@@ -4835,19 +4835,19 @@
         <v>46983</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>34903</v>
+        <v>35668</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>61803</v>
+        <v>62308</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03777978673873645</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02806629778638595</v>
+        <v>0.02868076302396702</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04969705298266926</v>
+        <v>0.05010297974191286</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>107</v>
@@ -4856,19 +4856,19 @@
         <v>113097</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>94138</v>
+        <v>92257</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>137352</v>
+        <v>134720</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04790172523547131</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03987173777134075</v>
+        <v>0.03907514551708482</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05817514193788821</v>
+        <v>0.05706008339371036</v>
       </c>
     </row>
     <row r="5">
@@ -4885,19 +4885,19 @@
         <v>664541</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>631372</v>
+        <v>632646</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>699333</v>
+        <v>697459</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5947139906968193</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5650304939649489</v>
+        <v>0.5661706992596971</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6258497913734201</v>
+        <v>0.6241731457727629</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>616</v>
@@ -4906,19 +4906,19 @@
         <v>646392</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>608168</v>
+        <v>607943</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>679057</v>
+        <v>681573</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5197729578632265</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4890366874256249</v>
+        <v>0.488856134341403</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5460395960780705</v>
+        <v>0.5480630845530881</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1249</v>
@@ -4927,19 +4927,19 @@
         <v>1310933</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1266697</v>
+        <v>1258236</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1368229</v>
+        <v>1364493</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5552407696188947</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5365047916256355</v>
+        <v>0.5329213444765274</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5795084824948739</v>
+        <v>0.5779258302648682</v>
       </c>
     </row>
     <row r="6">
@@ -4956,19 +4956,19 @@
         <v>296706</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>267346</v>
+        <v>266120</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>325332</v>
+        <v>327539</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2655293764332463</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2392544783470992</v>
+        <v>0.2381575698994043</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2911475883506775</v>
+        <v>0.2931222954936323</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>401</v>
@@ -4977,19 +4977,19 @@
         <v>430175</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>397936</v>
+        <v>395715</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>467276</v>
+        <v>466690</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3459103043723598</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3199858745889674</v>
+        <v>0.318199976569594</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3757434976027187</v>
+        <v>0.3752720719695497</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>681</v>
@@ -4998,19 +4998,19 @@
         <v>726881</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>680180</v>
+        <v>678037</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>768787</v>
+        <v>774182</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3078679194052226</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2880876036072559</v>
+        <v>0.2871800690943073</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.325616935007372</v>
+        <v>0.327901977328255</v>
       </c>
     </row>
     <row r="7">
@@ -5027,19 +5027,19 @@
         <v>90052</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>73188</v>
+        <v>73669</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>112899</v>
+        <v>111846</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08058989024993504</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.065497960906421</v>
+        <v>0.06592820429777423</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1010359331381747</v>
+        <v>0.1000933779070074</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>110</v>
@@ -5048,19 +5048,19 @@
         <v>120054</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>100459</v>
+        <v>100247</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>144648</v>
+        <v>143764</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09653695102567726</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08078025579419675</v>
+        <v>0.08061045864069136</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1163133946169687</v>
+        <v>0.1156025428993147</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>191</v>
@@ -5069,19 +5069,19 @@
         <v>210106</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>179786</v>
+        <v>181735</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>240103</v>
+        <v>242385</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08898958574041144</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07614751821991124</v>
+        <v>0.07697305794765556</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1016949204284182</v>
+        <v>0.1026611294597339</v>
       </c>
     </row>
     <row r="8">
@@ -5173,19 +5173,19 @@
         <v>24425</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>16203</v>
+        <v>14934</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>36274</v>
+        <v>34319</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02728411647224353</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01809943797608718</v>
+        <v>0.01668230953399136</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04052055026342306</v>
+        <v>0.03833714153381496</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>40</v>
@@ -5194,19 +5194,19 @@
         <v>41543</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>31057</v>
+        <v>30627</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>54589</v>
+        <v>57845</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04173698265676452</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03120218621952792</v>
+        <v>0.03077061263769027</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05484393034188742</v>
+        <v>0.05811527937040846</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>65</v>
@@ -5215,19 +5215,19 @@
         <v>65968</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>51040</v>
+        <v>52505</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>82750</v>
+        <v>82159</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03489335227380429</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02699767509748797</v>
+        <v>0.02777221224875122</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.043770558723118</v>
+        <v>0.04345793550448128</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>579412</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>550217</v>
+        <v>549435</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>607498</v>
+        <v>607181</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6472434924335851</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6146302665866621</v>
+        <v>0.6137561707996091</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6786174039168678</v>
+        <v>0.6782626379979469</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>527</v>
@@ -5265,19 +5265,19 @@
         <v>550332</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>519448</v>
+        <v>516612</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>581586</v>
+        <v>580243</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5529051527499027</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5218763369475006</v>
+        <v>0.5190275126791176</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5843049980189184</v>
+        <v>0.582955166265118</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1090</v>
@@ -5286,19 +5286,19 @@
         <v>1129745</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1088193</v>
+        <v>1086536</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1175929</v>
+        <v>1169014</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5975756505940416</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5755969349652992</v>
+        <v>0.5747205450237503</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6220048176408962</v>
+        <v>0.6183471330248328</v>
       </c>
     </row>
     <row r="11">
@@ -5315,19 +5315,19 @@
         <v>242561</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>216767</v>
+        <v>216575</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>269783</v>
+        <v>271433</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2709573929936915</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2421441085463729</v>
+        <v>0.241929398829916</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3013660194822878</v>
+        <v>0.3032092911522475</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>301</v>
@@ -5336,19 +5336,19 @@
         <v>319251</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>291655</v>
+        <v>291050</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>350559</v>
+        <v>347470</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3207433743240075</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.293018607977065</v>
+        <v>0.2924103581735396</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.35219747995675</v>
+        <v>0.3490941162104146</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>535</v>
@@ -5357,19 +5357,19 @@
         <v>561812</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>518443</v>
+        <v>524242</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>601378</v>
+        <v>600747</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2971690292683155</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2742288356982507</v>
+        <v>0.2772964109485132</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3180972744057399</v>
+        <v>0.3177634107720871</v>
       </c>
     </row>
     <row r="12">
@@ -5386,19 +5386,19 @@
         <v>48802</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>36295</v>
+        <v>37021</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>63487</v>
+        <v>63881</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05451499810047981</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04054449774844819</v>
+        <v>0.04135446958922901</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0709190126519393</v>
+        <v>0.0713599938547676</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>74</v>
@@ -5407,19 +5407,19 @@
         <v>84221</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>66237</v>
+        <v>67321</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>103625</v>
+        <v>103982</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08461449026932524</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06654701564085103</v>
+        <v>0.06763534113948268</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1041093768246725</v>
+        <v>0.1044678564670255</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>120</v>
@@ -5428,19 +5428,19 @@
         <v>133023</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>108808</v>
+        <v>108333</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>155793</v>
+        <v>156712</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07036196786383871</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0575536619739987</v>
+        <v>0.05730241257236153</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0824064066483538</v>
+        <v>0.08289262974630646</v>
       </c>
     </row>
     <row r="13">
@@ -5532,19 +5532,19 @@
         <v>25787</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>18122</v>
+        <v>17238</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>37006</v>
+        <v>36890</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03152356720895085</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0221539016416354</v>
+        <v>0.02107220359242194</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0452381639674742</v>
+        <v>0.04509704902585987</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>29</v>
@@ -5553,19 +5553,19 @@
         <v>32573</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>22028</v>
+        <v>22088</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>45846</v>
+        <v>46262</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04298246560168057</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0290682366887651</v>
+        <v>0.02914711231744288</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0604971423297286</v>
+        <v>0.06104625434481991</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>54</v>
@@ -5574,19 +5574,19 @@
         <v>58360</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>42560</v>
+        <v>44966</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>74268</v>
+        <v>75209</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03703412596629074</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02700790653640205</v>
+        <v>0.02853461593973301</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04712897466615815</v>
+        <v>0.04772620371379327</v>
       </c>
     </row>
     <row r="15">
@@ -5603,19 +5603,19 @@
         <v>541224</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>510968</v>
+        <v>512068</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>565372</v>
+        <v>568790</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.6616238940743537</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6246371357424809</v>
+        <v>0.6259824590416793</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.69114406056116</v>
+        <v>0.6953223264360092</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>472</v>
@@ -5624,19 +5624,19 @@
         <v>495120</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>467421</v>
+        <v>466947</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>519840</v>
+        <v>522685</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.6533488726090175</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.6167972999867243</v>
+        <v>0.6161716698011145</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.685968923899458</v>
+        <v>0.6897233654156401</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>993</v>
@@ -5645,19 +5645,19 @@
         <v>1036343</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>998908</v>
+        <v>992965</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>1075987</v>
+        <v>1074645</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.6576444546518072</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.6338888795020903</v>
+        <v>0.6301174254309188</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.6828017652996354</v>
+        <v>0.6819504058516458</v>
       </c>
     </row>
     <row r="16">
@@ -5674,19 +5674,19 @@
         <v>218273</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>195809</v>
+        <v>192968</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>247392</v>
+        <v>246196</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2668295713274997</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2393689663961792</v>
+        <v>0.2358951138587715</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.302427057692064</v>
+        <v>0.3009645314175037</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>172</v>
@@ -5695,19 +5695,19 @@
         <v>184458</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>161498</v>
+        <v>157576</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>210116</v>
+        <v>207034</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2434062906019709</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2131092941183463</v>
+        <v>0.2079332617306581</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2772641922404867</v>
+        <v>0.2731974265886425</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>376</v>
@@ -5716,19 +5716,19 @@
         <v>402730</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>367126</v>
+        <v>367131</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>439865</v>
+        <v>440910</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2555653677100221</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2329716360715797</v>
+        <v>0.2329747108842941</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2791301910539958</v>
+        <v>0.2797937284966379</v>
       </c>
     </row>
     <row r="17">
@@ -5745,19 +5745,19 @@
         <v>32740</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>22951</v>
+        <v>21754</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>45392</v>
+        <v>44147</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04002296738919579</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02805620813751465</v>
+        <v>0.02659355941319381</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.055489464900195</v>
+        <v>0.05396777281436336</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>43</v>
@@ -5766,19 +5766,19 @@
         <v>45668</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>34067</v>
+        <v>33849</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>60597</v>
+        <v>59856</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06026237118733098</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04495345271846225</v>
+        <v>0.04466669765735339</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07996250976998123</v>
+        <v>0.07898454776719548</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>74</v>
@@ -5787,19 +5787,19 @@
         <v>78408</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>61968</v>
+        <v>61863</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>97321</v>
+        <v>96790</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04975605167187992</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03932386402220773</v>
+        <v>0.03925735155013452</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06175843993287609</v>
+        <v>0.06142109407289868</v>
       </c>
     </row>
     <row r="18">
@@ -5891,19 +5891,19 @@
         <v>26301</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>17173</v>
+        <v>17482</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>38142</v>
+        <v>39059</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05218407250517435</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03407289470007206</v>
+        <v>0.03468717298548187</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07567781138785029</v>
+        <v>0.07749866332455461</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>11</v>
@@ -5912,19 +5912,19 @@
         <v>11028</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5939</v>
+        <v>5421</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>19350</v>
+        <v>18797</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02270528549218382</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01222873130120542</v>
+        <v>0.01116151830741611</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03984011093766864</v>
+        <v>0.03870098694783647</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>34</v>
@@ -5933,19 +5933,19 @@
         <v>37329</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>26504</v>
+        <v>26223</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>50562</v>
+        <v>51931</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03771741960963697</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02677985933184191</v>
+        <v>0.02649638582471775</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05108862172840069</v>
+        <v>0.05247167110552913</v>
       </c>
     </row>
     <row r="20">
@@ -5962,19 +5962,19 @@
         <v>324760</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>302152</v>
+        <v>301077</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>346035</v>
+        <v>345895</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6443647876792776</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5995073735814329</v>
+        <v>0.5973745284816874</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6865753560485526</v>
+        <v>0.6862983148144379</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>278</v>
@@ -5983,19 +5983,19 @@
         <v>297301</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>275833</v>
+        <v>275121</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>320172</v>
+        <v>319526</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6121239198576182</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5679230032807032</v>
+        <v>0.5664564034619158</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.659213852948918</v>
+        <v>0.6578833045884899</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>582</v>
@@ -6004,19 +6004,19 @@
         <v>622062</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>589838</v>
+        <v>590625</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>652822</v>
+        <v>653046</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6285426494202878</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5959831528821696</v>
+        <v>0.5967779684665653</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6596232580824097</v>
+        <v>0.6598492848900671</v>
       </c>
     </row>
     <row r="21">
@@ -6033,19 +6033,19 @@
         <v>117485</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>99003</v>
+        <v>99490</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>136760</v>
+        <v>136779</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2331049014743008</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1964349763231807</v>
+        <v>0.1973996191022051</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2713491968128592</v>
+        <v>0.2713871266282945</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>111</v>
@@ -6054,19 +6054,19 @@
         <v>121603</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>102437</v>
+        <v>101980</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>141294</v>
+        <v>143513</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2503724324592589</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2109116415775678</v>
+        <v>0.2099695155656164</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2909156266300432</v>
+        <v>0.2954840804258867</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>221</v>
@@ -6075,19 +6075,19 @@
         <v>239088</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>213461</v>
+        <v>212680</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>264984</v>
+        <v>269322</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.241578906086914</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2156849303415709</v>
+        <v>0.2148954175148039</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2677442342821091</v>
+        <v>0.272127837191533</v>
       </c>
     </row>
     <row r="22">
@@ -6104,19 +6104,19 @@
         <v>35455</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>24819</v>
+        <v>24705</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>51002</v>
+        <v>48919</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07034623834124726</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0492442390296517</v>
+        <v>0.04901801501530569</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1011940701896801</v>
+        <v>0.09706068122715462</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>51</v>
@@ -6125,19 +6125,19 @@
         <v>55756</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>42544</v>
+        <v>41935</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>71658</v>
+        <v>71291</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1147983621909391</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08759538491260137</v>
+        <v>0.08634198373378245</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1475393965812102</v>
+        <v>0.1467843010632107</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>82</v>
@@ -6146,19 +6146,19 @@
         <v>91211</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>74944</v>
+        <v>73416</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>112417</v>
+        <v>111198</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09216102488316112</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07572513441069745</v>
+        <v>0.0741810167427312</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1135882189479151</v>
+        <v>0.1123561620479472</v>
       </c>
     </row>
     <row r="23">
@@ -6250,19 +6250,19 @@
         <v>142626</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>122357</v>
+        <v>120474</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>170137</v>
+        <v>168213</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04277115272051205</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03669268118027449</v>
+        <v>0.03612809406725163</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05102118768528827</v>
+        <v>0.05044416977860686</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>126</v>
@@ -6271,19 +6271,19 @@
         <v>132126</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>112001</v>
+        <v>111194</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>158616</v>
+        <v>158252</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03794058417939304</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03216136653574324</v>
+        <v>0.03192965112799508</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04554715347978814</v>
+        <v>0.04544272054124305</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>260</v>
@@ -6292,19 +6292,19 @@
         <v>274753</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>244461</v>
+        <v>243798</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>309952</v>
+        <v>311235</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04030349608890468</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03586003896717431</v>
+        <v>0.03576277163113043</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04546687897057271</v>
+        <v>0.04565504802533608</v>
       </c>
     </row>
     <row r="25">
@@ -6321,19 +6321,19 @@
         <v>2109938</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2046702</v>
+        <v>2049330</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2163411</v>
+        <v>2162107</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6327338044157614</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6137705093546503</v>
+        <v>0.6145585470757946</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6487694256421642</v>
+        <v>0.6483783984503736</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1893</v>
@@ -6342,19 +6342,19 @@
         <v>1989145</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1934360</v>
+        <v>1924470</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2047922</v>
+        <v>2042303</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5711901218663311</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5554584876316959</v>
+        <v>0.5526184009165359</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5880681700923196</v>
+        <v>0.5864545182678074</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3914</v>
@@ -6363,19 +6363,19 @@
         <v>4099083</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4020434</v>
+        <v>4014788</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4186826</v>
+        <v>4176054</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6012947149827276</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5897577167049539</v>
+        <v>0.5889295061686916</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6141658276617641</v>
+        <v>0.6125856903957052</v>
       </c>
     </row>
     <row r="26">
@@ -6392,19 +6392,19 @@
         <v>875025</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>823888</v>
+        <v>824360</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>927920</v>
+        <v>929549</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2624048320180887</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2470696409584623</v>
+        <v>0.2472111989592959</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.278267028853957</v>
+        <v>0.2787555900047994</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>985</v>
@@ -6413,19 +6413,19 @@
         <v>1055487</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>999663</v>
+        <v>997630</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1105037</v>
+        <v>1107388</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3030868496329092</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2870567629112981</v>
+        <v>0.286472992007469</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3173152436217269</v>
+        <v>0.3179904817394144</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1813</v>
@@ -6434,19 +6434,19 @@
         <v>1930512</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1851132</v>
+        <v>1860571</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2002151</v>
+        <v>2003856</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2831869096762031</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2715426774168755</v>
+        <v>0.2729273330244973</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2936957287741356</v>
+        <v>0.2939457422235325</v>
       </c>
     </row>
     <row r="27">
@@ -6463,19 +6463,19 @@
         <v>207048</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>178047</v>
+        <v>179438</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>235456</v>
+        <v>236453</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.06209021084563788</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.05339331623435845</v>
+        <v>0.05381038591829091</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.0706091595785191</v>
+        <v>0.07090814881163132</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>278</v>
@@ -6484,19 +6484,19 @@
         <v>305699</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>271367</v>
+        <v>271494</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>338936</v>
+        <v>340192</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.08778244432136664</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.07792401072827593</v>
+        <v>0.07796041823683132</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.09732659931069636</v>
+        <v>0.09768746997569187</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>467</v>
@@ -6505,19 +6505,19 @@
         <v>512747</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>467728</v>
+        <v>469948</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>554582</v>
+        <v>560431</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.07521487925216468</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.06861099735514291</v>
+        <v>0.06893665423925069</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.0813516617821609</v>
+        <v>0.08220961437140301</v>
       </c>
     </row>
     <row r="28">
@@ -6849,19 +6849,19 @@
         <v>48609</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>34879</v>
+        <v>35271</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>65655</v>
+        <v>66718</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09764706575931206</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07006663280102536</v>
+        <v>0.07085357510760816</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1318913612122533</v>
+        <v>0.1340257110016909</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>49</v>
@@ -6870,19 +6870,19 @@
         <v>43481</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>31859</v>
+        <v>31870</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>57178</v>
+        <v>58887</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0698630222822587</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05118930056311013</v>
+        <v>0.05120714990172034</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09187005879985125</v>
+        <v>0.09461534821655891</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>89</v>
@@ -6891,19 +6891,19 @@
         <v>92090</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>74561</v>
+        <v>74370</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>118447</v>
+        <v>111628</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08221002357424821</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06656150630604109</v>
+        <v>0.06639136780028955</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1057396506988438</v>
+        <v>0.0996520306797707</v>
       </c>
     </row>
     <row r="5">
@@ -6920,19 +6920,19 @@
         <v>259656</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>235523</v>
+        <v>235830</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>285876</v>
+        <v>285864</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.5216087266710829</v>
+        <v>0.521608726671083</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4731298257200601</v>
+        <v>0.4737465841526219</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5742816287795603</v>
+        <v>0.5742560403768162</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>409</v>
@@ -6941,19 +6941,19 @@
         <v>305900</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>283942</v>
+        <v>284449</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>329769</v>
+        <v>331120</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.491499642686097</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4562195884493855</v>
+        <v>0.4570346004483808</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5298519158267566</v>
+        <v>0.5320230147034851</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>646</v>
@@ -6962,19 +6962,19 @@
         <v>565555</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>529864</v>
+        <v>530767</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>601486</v>
+        <v>598072</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.5048798729312114</v>
+        <v>0.5048798729312115</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4730180528059029</v>
+        <v>0.4738241335689338</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5369560358428054</v>
+        <v>0.5339079468370287</v>
       </c>
     </row>
     <row r="6">
@@ -6991,19 +6991,19 @@
         <v>144967</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>122335</v>
+        <v>124817</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>167734</v>
+        <v>169331</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2912164868396923</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.245751317198258</v>
+        <v>0.250737702413532</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3369521921660107</v>
+        <v>0.3401598855673696</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>294</v>
@@ -7012,19 +7012,19 @@
         <v>199184</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>180329</v>
+        <v>178546</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>221148</v>
+        <v>220533</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3200366086151474</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2897417236687762</v>
+        <v>0.286875699147802</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3553257268914244</v>
+        <v>0.3543386444320473</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>430</v>
@@ -7033,19 +7033,19 @@
         <v>344151</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>314748</v>
+        <v>318291</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>374885</v>
+        <v>377741</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.3072291826157341</v>
+        <v>0.3072291826157342</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2809800501882302</v>
+        <v>0.2841434819737124</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3346652601142026</v>
+        <v>0.3372155531406263</v>
       </c>
     </row>
     <row r="7">
@@ -7062,19 +7062,19 @@
         <v>44567</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>32904</v>
+        <v>32769</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>59913</v>
+        <v>60335</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.0895277207299127</v>
+        <v>0.08952772072991272</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06609836516346321</v>
+        <v>0.06582768021339985</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1203570492920544</v>
+        <v>0.1212034965629759</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>107</v>
@@ -7083,19 +7083,19 @@
         <v>73815</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>60876</v>
+        <v>60788</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>89866</v>
+        <v>89285</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.1186007264164969</v>
+        <v>0.1186007264164968</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09781233055653224</v>
+        <v>0.09767025367897095</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.144390214807917</v>
+        <v>0.1434579857328768</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>148</v>
@@ -7104,19 +7104,19 @@
         <v>118381</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>99925</v>
+        <v>100604</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>138764</v>
+        <v>138602</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1056809208788062</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08920415830713375</v>
+        <v>0.0898107263831122</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1238770289357594</v>
+        <v>0.1237320970953028</v>
       </c>
     </row>
     <row r="8">
@@ -7208,19 +7208,19 @@
         <v>59010</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>42138</v>
+        <v>42572</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>82622</v>
+        <v>84212</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.06152822426684541</v>
+        <v>0.06152822426684543</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04393670574581048</v>
+        <v>0.04438935283219152</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08614860459549992</v>
+        <v>0.08780595699623034</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>94</v>
@@ -7229,19 +7229,19 @@
         <v>76750</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>60374</v>
+        <v>62889</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>93151</v>
+        <v>98283</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.0689687290610236</v>
+        <v>0.06896872906102361</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0542528721901057</v>
+        <v>0.05651279371027099</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.08370672879473287</v>
+        <v>0.08831836272339863</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>138</v>
@@ -7250,19 +7250,19 @@
         <v>135760</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>112469</v>
+        <v>113778</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>164688</v>
+        <v>163661</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.06552456082152158</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0542832314538987</v>
+        <v>0.054915122009924</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0794870993433222</v>
+        <v>0.07899124869234324</v>
       </c>
     </row>
     <row r="10">
@@ -7279,19 +7279,19 @@
         <v>520425</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>487435</v>
+        <v>485020</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>555050</v>
+        <v>555974</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.542637374536598</v>
+        <v>0.5426373745365981</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5082397573809978</v>
+        <v>0.505721470218951</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5787407183173519</v>
+        <v>0.5797040074887796</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>821</v>
@@ -7300,19 +7300,19 @@
         <v>596050</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>566498</v>
+        <v>567417</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>628040</v>
+        <v>624211</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.5356199879130259</v>
+        <v>0.535619987913026</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5090636192568837</v>
+        <v>0.5098893443556094</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5643661339630398</v>
+        <v>0.5609254473032127</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1302</v>
@@ -7321,19 +7321,19 @@
         <v>1116475</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1068852</v>
+        <v>1071548</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1161566</v>
+        <v>1164501</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5388682971073329</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5158831236898461</v>
+        <v>0.5171845122637905</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5606315526738572</v>
+        <v>0.5620480747576392</v>
       </c>
     </row>
     <row r="11">
@@ -7350,19 +7350,19 @@
         <v>328919</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>295681</v>
+        <v>296629</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>360917</v>
+        <v>362350</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3429575819380007</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.308301479080709</v>
+        <v>0.3092901219301752</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3763220439842518</v>
+        <v>0.3778158230495802</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>548</v>
@@ -7371,19 +7371,19 @@
         <v>350013</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>322989</v>
+        <v>325138</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>375781</v>
+        <v>379887</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.3145275204390921</v>
+        <v>0.3145275204390922</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2902433658627212</v>
+        <v>0.2921741937503209</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3376828668883147</v>
+        <v>0.3413726268086464</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>878</v>
@@ -7392,19 +7392,19 @@
         <v>678932</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>634644</v>
+        <v>638833</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>724038</v>
+        <v>725378</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3276876376045626</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3063121385855738</v>
+        <v>0.3083338650751901</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3494582025386445</v>
+        <v>0.3501048818840038</v>
       </c>
     </row>
     <row r="12">
@@ -7421,19 +7421,19 @@
         <v>50712</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>38070</v>
+        <v>37484</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>66430</v>
+        <v>66567</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0528768192585559</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03969479222704838</v>
+        <v>0.03908379871447343</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0692657742985988</v>
+        <v>0.06940837549808938</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>139</v>
@@ -7442,19 +7442,19 @@
         <v>90009</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>74777</v>
+        <v>74936</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>107283</v>
+        <v>106403</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.08088376258685823</v>
+        <v>0.08088376258685825</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06719587659760481</v>
+        <v>0.06733890803384107</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09640589442368513</v>
+        <v>0.09561557301690526</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>193</v>
@@ -7463,19 +7463,19 @@
         <v>140722</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>120573</v>
+        <v>120153</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>164505</v>
+        <v>162192</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06791950446658297</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05819497471839125</v>
+        <v>0.05799205773616882</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07939848075680232</v>
+        <v>0.0782820422023114</v>
       </c>
     </row>
     <row r="13">
@@ -7567,19 +7567,19 @@
         <v>40908</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>25989</v>
+        <v>26760</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>57784</v>
+        <v>60746</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.03912560024600049</v>
+        <v>0.03912560024600048</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02485612893988118</v>
+        <v>0.02559416357100537</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05526666090694109</v>
+        <v>0.05809932656095308</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>72</v>
@@ -7588,19 +7588,19 @@
         <v>64207</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>50322</v>
+        <v>49465</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>83260</v>
+        <v>82525</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.06137307375437509</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04810111994281945</v>
+        <v>0.04728121985355394</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07958468366920377</v>
+        <v>0.07888183165366673</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>101</v>
@@ -7609,19 +7609,19 @@
         <v>105115</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>85073</v>
+        <v>86648</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>128500</v>
+        <v>129981</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.05025264466729442</v>
+        <v>0.05025264466729443</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04067092991361544</v>
+        <v>0.04142412807546823</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06143233999490847</v>
+        <v>0.06214030280495049</v>
       </c>
     </row>
     <row r="15">
@@ -7638,19 +7638,19 @@
         <v>605540</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>571829</v>
+        <v>567957</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>638804</v>
+        <v>640229</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5791549939389655</v>
+        <v>0.5791549939389656</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5469126633360708</v>
+        <v>0.5432094262458806</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6109690037122306</v>
+        <v>0.6123328105372613</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>841</v>
@@ -7659,19 +7659,19 @@
         <v>601503</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>573977</v>
+        <v>574014</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>629066</v>
+        <v>632496</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.5749516240890511</v>
+        <v>0.574951624089051</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.5486407778468168</v>
+        <v>0.5486763692171361</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.601297830924824</v>
+        <v>0.6045770294913734</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1422</v>
@@ -7680,19 +7680,19 @@
         <v>1207043</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1166077</v>
+        <v>1158795</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>1254796</v>
+        <v>1251409</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.5770526840734647</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.557468110871176</v>
+        <v>0.5539867286710395</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.5998818615579417</v>
+        <v>0.5982626828924824</v>
       </c>
     </row>
     <row r="16">
@@ -7709,19 +7709,19 @@
         <v>329853</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>298838</v>
+        <v>296351</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>364565</v>
+        <v>368387</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.3154802272717543</v>
+        <v>0.3154802272717542</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2858166497548257</v>
+        <v>0.2834382722620974</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.348679382783831</v>
+        <v>0.352335708619384</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>475</v>
@@ -7730,19 +7730,19 @@
         <v>304802</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>280166</v>
+        <v>277997</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>330104</v>
+        <v>328328</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2913476198562399</v>
+        <v>0.2913476198562398</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2677994031497061</v>
+        <v>0.2657257328826892</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3155327010706206</v>
+        <v>0.3138349256496749</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>816</v>
@@ -7751,19 +7751,19 @@
         <v>634655</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>594774</v>
+        <v>595266</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>677019</v>
+        <v>677031</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3034103356225746</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2843443969813497</v>
+        <v>0.2845796938076127</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3236635311826748</v>
+        <v>0.3236690759933946</v>
       </c>
     </row>
     <row r="17">
@@ -7780,19 +7780,19 @@
         <v>69257</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>54494</v>
+        <v>54488</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>85981</v>
+        <v>85905</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06623917854327964</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05211997605650155</v>
+        <v>0.05211410910272474</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.082234420625089</v>
+        <v>0.08216205671779948</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>126</v>
@@ -7801,19 +7801,19 @@
         <v>75668</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>62936</v>
+        <v>62322</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>91175</v>
+        <v>89945</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.07232768230033403</v>
+        <v>0.07232768230033401</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06015837990453828</v>
+        <v>0.05957090311767477</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08715051298381304</v>
+        <v>0.08597512075705535</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>203</v>
@@ -7822,19 +7822,19 @@
         <v>144925</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>126137</v>
+        <v>124648</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>166387</v>
+        <v>167134</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06928433563666632</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06030255946046283</v>
+        <v>0.05959079846109846</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07954468253227713</v>
+        <v>0.07990205378572549</v>
       </c>
     </row>
     <row r="18">
@@ -7926,19 +7926,19 @@
         <v>44343</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>29792</v>
+        <v>31587</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>63249</v>
+        <v>64299</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04543644400366435</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03052656633359021</v>
+        <v>0.03236596172083046</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06480885136473485</v>
+        <v>0.06588459556497588</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>37</v>
@@ -7947,19 +7947,19 @@
         <v>31217</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>21361</v>
+        <v>21444</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>48567</v>
+        <v>46416</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03437085158232879</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0235190254313633</v>
+        <v>0.02361001891155864</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05347340025533921</v>
+        <v>0.05110458197941029</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>71</v>
@@ -7968,19 +7968,19 @@
         <v>75560</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>57182</v>
+        <v>56868</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>98338</v>
+        <v>98161</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04010238209753225</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0303486676287237</v>
+        <v>0.03018195544015363</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05219132096285409</v>
+        <v>0.05209738362303354</v>
       </c>
     </row>
     <row r="20">
@@ -7997,19 +7997,19 @@
         <v>573704</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>541662</v>
+        <v>539645</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>607984</v>
+        <v>604843</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5878542422192942</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5550214840694498</v>
+        <v>0.5529556961328282</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6229798221588151</v>
+        <v>0.6197612242535351</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>766</v>
@@ -8018,19 +8018,19 @@
         <v>546324</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>520149</v>
+        <v>519273</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>573860</v>
+        <v>572611</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.6015121076453279</v>
+        <v>0.601512107645328</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5726931892936609</v>
+        <v>0.5717279786974987</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6318300656911052</v>
+        <v>0.6304543223167002</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1314</v>
@@ -8039,19 +8039,19 @@
         <v>1120028</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1075207</v>
+        <v>1073021</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1159166</v>
+        <v>1159294</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.5944378842796705</v>
+        <v>0.5944378842796703</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5706498783502403</v>
+        <v>0.5694894179495107</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6152096365350346</v>
+        <v>0.6152775983549563</v>
       </c>
     </row>
     <row r="21">
@@ -8068,19 +8068,19 @@
         <v>283592</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>254794</v>
+        <v>256983</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>315914</v>
+        <v>316486</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2905867518243569</v>
+        <v>0.290586751824357</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2610780163734973</v>
+        <v>0.2633212328645591</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3237054318648414</v>
+        <v>0.3242917882889834</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>445</v>
@@ -8089,19 +8089,19 @@
         <v>282383</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>258381</v>
+        <v>258573</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>308361</v>
+        <v>305051</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.3109083626874151</v>
+        <v>0.3109083626874152</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2844815158800562</v>
+        <v>0.2846928273399075</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3395111490827266</v>
+        <v>0.3358664805174351</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>731</v>
@@ -8110,19 +8110,19 @@
         <v>565975</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>527048</v>
+        <v>530375</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>605001</v>
+        <v>605896</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3003825879846405</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2797228286445396</v>
+        <v>0.2814883054617671</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3210952433960434</v>
+        <v>0.3215702205711017</v>
       </c>
     </row>
     <row r="22">
@@ -8139,19 +8139,19 @@
         <v>74290</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>58756</v>
+        <v>58637</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>93345</v>
+        <v>91662</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07612256195268458</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06020489812735243</v>
+        <v>0.06008338708005618</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09564756103115325</v>
+        <v>0.09392329001635361</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>72</v>
@@ -8160,19 +8160,19 @@
         <v>48327</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>36500</v>
+        <v>38102</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>62106</v>
+        <v>63108</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.05320867808492808</v>
+        <v>0.05320867808492809</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04018740757971451</v>
+        <v>0.04195055367732039</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0683797634784567</v>
+        <v>0.06948293396624082</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>151</v>
@@ -8181,19 +8181,19 @@
         <v>122617</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>103888</v>
+        <v>103632</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>144625</v>
+        <v>146368</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.06507714563815681</v>
+        <v>0.06507714563815679</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05513677896431535</v>
+        <v>0.05500119171653212</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07675742348911048</v>
+        <v>0.077682337331042</v>
       </c>
     </row>
     <row r="23">
@@ -8285,19 +8285,19 @@
         <v>192869</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>159985</v>
+        <v>158872</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>230832</v>
+        <v>229687</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05544839003462237</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04599456323230643</v>
+        <v>0.04567443278243227</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06636244575129858</v>
+        <v>0.06603332530757983</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>252</v>
@@ -8306,19 +8306,19 @@
         <v>215656</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>186715</v>
+        <v>188792</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>247947</v>
+        <v>243800</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.05844915305499337</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05060538478708227</v>
+        <v>0.05116815297308695</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06720107005197426</v>
+        <v>0.06607711327130751</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>399</v>
@@ -8327,19 +8327,19 @@
         <v>408525</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>368508</v>
+        <v>365021</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>458511</v>
+        <v>459103</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.05699299665150664</v>
+        <v>0.05699299665150665</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05141028782498772</v>
+        <v>0.05092373781743842</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06396658601913828</v>
+        <v>0.0640491167102865</v>
       </c>
     </row>
     <row r="25">
@@ -8356,19 +8356,19 @@
         <v>1959324</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1889264</v>
+        <v>1896977</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2022371</v>
+        <v>2020237</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.5632913398807421</v>
+        <v>0.5632913398807422</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5431495924162321</v>
+        <v>0.5453669450418953</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5814168058745637</v>
+        <v>0.5808031313942473</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2837</v>
@@ -8377,19 +8377,19 @@
         <v>2049776</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1997433</v>
+        <v>1995973</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2105061</v>
+        <v>2104876</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.5555501275662208</v>
+        <v>0.5555501275662209</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5413637106935441</v>
+        <v>0.5409679844070616</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5705340071647176</v>
+        <v>0.5704837879236585</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4684</v>
@@ -8398,19 +8398,19 @@
         <v>4009101</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3920239</v>
+        <v>3933810</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4094677</v>
+        <v>4099062</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.5593066440941893</v>
+        <v>0.5593066440941895</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5469095007630761</v>
+        <v>0.548802880042208</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5712453131665944</v>
+        <v>0.5718569716708438</v>
       </c>
     </row>
     <row r="26">
@@ -8427,19 +8427,19 @@
         <v>1087331</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1028688</v>
+        <v>1022928</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1150541</v>
+        <v>1150481</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.31259951407286</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2957400941857983</v>
+        <v>0.2940843142564198</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3307720843355731</v>
+        <v>0.3307549428320818</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1762</v>
@@ -8448,19 +8448,19 @@
         <v>1136382</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1092258</v>
+        <v>1090530</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1188136</v>
+        <v>1182193</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3079933470869279</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2960344080323782</v>
+        <v>0.2955659059117233</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3220199760107476</v>
+        <v>0.3204094902979275</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2855</v>
@@ -8469,19 +8469,19 @@
         <v>2223713</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2145878</v>
+        <v>2143204</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2305026</v>
+        <v>2299138</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.3102285451037525</v>
+        <v>0.3102285451037526</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2993698098089543</v>
+        <v>0.2989967627281273</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3215723895829294</v>
+        <v>0.3207509371609162</v>
       </c>
     </row>
     <row r="27">
@@ -8498,19 +8498,19 @@
         <v>238826</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>210657</v>
+        <v>213262</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>272263</v>
+        <v>272560</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.0686607560117754</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.06056244740851536</v>
+        <v>0.0613113376912453</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.07827361969346847</v>
+        <v>0.07835900333602741</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>444</v>
@@ -8519,19 +8519,19 @@
         <v>287819</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>261300</v>
+        <v>258877</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>315397</v>
+        <v>313429</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.07800737229185797</v>
+        <v>0.07800737229185796</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.07081998804956369</v>
+        <v>0.07016346715916427</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.08548186873247618</v>
+        <v>0.08494861986218367</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>695</v>
@@ -8540,19 +8540,19 @@
         <v>526645</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>485732</v>
+        <v>488428</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>567575</v>
+        <v>570569</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.0734718141505514</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.06776406759213097</v>
+        <v>0.06814027545671501</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.0791820050589427</v>
+        <v>0.07959967820572574</v>
       </c>
     </row>
     <row r="28">
